--- a/data/case1/18/Q_device_14.xlsx
+++ b/data/case1/18/Q_device_14.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.010542099007807209</v>
+        <v>0.005034448180838506</v>
       </c>
       <c r="B1" s="0">
-        <v>0.010542098987100866</v>
+        <v>-0.0050344482006422601</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.013367210808206272</v>
+        <v>-0.0065336135539141877</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.013367210820083708</v>
+        <v>0.0065336135412281671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.068656004893276029</v>
+        <v>-0.034464233493570945</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.068656004912384688</v>
+        <v>0.034464233480775743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.025009570310639249</v>
+        <v>0.046828604005686648</v>
       </c>
       <c r="B4" s="0">
-        <v>0.025009570280171974</v>
+        <v>-0.046828604016710733</v>
       </c>
     </row>
   </sheetData>
